--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Fall.121819.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Fall.121819.xlsx_with_dialog_acts.xlsx
@@ -2067,12 +2067,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2235,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3075,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3117,12 +3117,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3495,12 +3495,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4041,12 +4041,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4801,12 +4801,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5431,12 +5431,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5473,12 +5473,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5599,12 +5599,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5683,12 +5683,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6145,12 +6145,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6901,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7069,12 +7069,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7115,12 +7115,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7157,12 +7157,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7283,12 +7283,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7451,12 +7451,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7661,12 +7661,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8123,12 +8123,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8165,12 +8165,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8877,12 +8877,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9133,12 +9133,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9175,12 +9175,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9473,12 +9473,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9515,12 +9515,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9641,12 +9641,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10693,12 +10693,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10865,12 +10865,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11037,12 +11037,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11079,12 +11079,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11163,12 +11163,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12099,12 +12099,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12603,12 +12603,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12645,12 +12645,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12981,12 +12981,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13023,12 +13023,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13653,12 +13653,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13779,12 +13779,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14577,12 +14577,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14745,12 +14745,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15123,12 +15123,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15501,12 +15501,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15799,12 +15799,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16009,12 +16009,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16093,12 +16093,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16681,12 +16681,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18109,12 +18109,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18697,12 +18697,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18739,12 +18739,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19075,12 +19075,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19201,12 +19201,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19915,12 +19915,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19957,12 +19957,12 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20041,12 +20041,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20209,12 +20209,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20461,12 +20461,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20797,12 +20797,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
